--- a/HOAc work/Ni(110)/TPD PLOT_HOAc_9.6E-09_15 s_724 TPD_output Acetic Acid.xlsx
+++ b/HOAc work/Ni(110)/TPD PLOT_HOAc_9.6E-09_15 s_724 TPD_output Acetic Acid.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PythonProjects\IRAS_plot\IRAS\HOAc work\Ni(110)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PythonProjects\IRAS\HOAc work\Ni(110)\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -6362,11 +6362,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="644228536"/>
-        <c:axId val="508293624"/>
+        <c:axId val="826953176"/>
+        <c:axId val="826949256"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="644228536"/>
+        <c:axId val="826953176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="600"/>
@@ -6474,13 +6474,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="508293624"/>
+        <c:crossAx val="826949256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:minorUnit val="50"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="508293624"/>
+        <c:axId val="826949256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6543,29 +6543,7 @@
                     <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                     <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   </a:rPr>
-                  <a:t> (a.u.) </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1600" b="0" i="0" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:effectLst/>
-                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  </a:rPr>
-                  <a:t>x 10</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1600" b="0" i="0" baseline="30000">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:effectLst/>
-                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  </a:rPr>
-                  <a:t>5</a:t>
+                  <a:t> (a.u.)</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US" sz="1600" b="0">
                   <a:solidFill>
@@ -6650,7 +6628,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="644228536"/>
+        <c:crossAx val="826953176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:minorUnit val="25000"/>
@@ -7287,7 +7265,7 @@
         <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FA51803C-E0D8-419F-B8A1-5700D1591460}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA51803C-E0D8-419F-B8A1-5700D1591460}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7326,7 +7304,7 @@
         <cdr:cNvPr id="2" name="TextBox 1">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{636B430C-4532-4868-B96A-60899648EB7F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{636B430C-4532-4868-B96A-60899648EB7F}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -7383,7 +7361,7 @@
         <cdr:cNvPr id="6" name="TextBox 1">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{246827D2-2AE3-435F-ABE8-1DBC86ADD638}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{246827D2-2AE3-435F-ABE8-1DBC86ADD638}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -7523,7 +7501,7 @@
         <cdr:cNvPr id="7" name="TextBox 1">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{38AB209E-19D2-43DE-9DDD-8F7DE23A4983}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38AB209E-19D2-43DE-9DDD-8F7DE23A4983}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -7663,7 +7641,7 @@
         <cdr:cNvPr id="8" name="TextBox 1">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{38AB209E-19D2-43DE-9DDD-8F7DE23A4983}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38AB209E-19D2-43DE-9DDD-8F7DE23A4983}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -7796,7 +7774,7 @@
         <cdr:cNvPr id="9" name="TextBox 1">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{38AB209E-19D2-43DE-9DDD-8F7DE23A4983}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38AB209E-19D2-43DE-9DDD-8F7DE23A4983}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -7922,7 +7900,7 @@
         <cdr:cNvPr id="10" name="TextBox 1">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{38AB209E-19D2-43DE-9DDD-8F7DE23A4983}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38AB209E-19D2-43DE-9DDD-8F7DE23A4983}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -8027,7 +8005,7 @@
         <cdr:cNvPr id="3" name="TextBox 2">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7BCBFB2E-D4FC-4731-8F2A-AE2AB3D1E62B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BCBFB2E-D4FC-4731-8F2A-AE2AB3D1E62B}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -8065,7 +8043,7 @@
         <cdr:cNvPr id="4" name="TextBox 3">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0FA83819-8FCB-40BD-9F39-F77516E9F091}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FA83819-8FCB-40BD-9F39-F77516E9F091}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -8103,7 +8081,7 @@
         <cdr:cNvPr id="5" name="TextBox 4">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{71B0B517-FA29-4D0C-83CC-3936E355FAAA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71B0B517-FA29-4D0C-83CC-3936E355FAAA}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -8508,8 +8486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="R27" sqref="R27"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
